--- a/00_raw_data/pjovimo laikas.xlsx
+++ b/00_raw_data/pjovimo laikas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsdi-my.sharepoint.com/personal/vilma_kemesyte_lammc_lt/Documents/Darbalaukis/duomenys nuo 2011 m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{203BD984-844D-4090-A9F7-D68308A31592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DE0FDE9-B078-4ECA-9630-17957210F754}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{203BD984-844D-4090-A9F7-D68308A31592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3511E013-E6E4-4BD2-A181-FCFB8DE1497F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28800" windowHeight="15510" xr2:uid="{5778B1BB-CDB4-49C6-81F5-690C534A3B4C}"/>
+    <workbookView xWindow="165" yWindow="90" windowWidth="28635" windowHeight="15510" xr2:uid="{5778B1BB-CDB4-49C6-81F5-690C534A3B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapas1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="72">
   <si>
     <t>T. eraičinas</t>
   </si>
@@ -64,9 +64,6 @@
     <t>2 n.m.</t>
   </si>
   <si>
-    <t>vasaris 29</t>
-  </si>
-  <si>
     <t>06.04</t>
   </si>
   <si>
@@ -209,6 +206,51 @@
   </si>
   <si>
     <t>10.03</t>
+  </si>
+  <si>
+    <t>3 n.m.</t>
+  </si>
+  <si>
+    <t>06.03</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>P.šunažolė</t>
+  </si>
+  <si>
+    <t>05.28</t>
+  </si>
+  <si>
+    <t>09.16</t>
+  </si>
+  <si>
+    <t>05.31</t>
+  </si>
+  <si>
+    <t>07.15</t>
+  </si>
+  <si>
+    <t>09.23</t>
+  </si>
+  <si>
+    <t>09.22</t>
+  </si>
+  <si>
+    <t>9.30</t>
+  </si>
+  <si>
+    <t>07.20</t>
+  </si>
+  <si>
+    <t>05.22</t>
+  </si>
+  <si>
+    <t>06.05</t>
+  </si>
+  <si>
+    <t>05.30</t>
   </si>
 </sst>
 </file>
@@ -253,12 +295,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -266,73 +308,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
@@ -348,6 +340,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,39 +643,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F72F1DA-2E27-429C-A93E-DF146048889D}">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7" style="12" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
     <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="7.5703125" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" style="1" customWidth="1"/>
     <col min="20" max="20" width="8.28515625" customWidth="1"/>
     <col min="21" max="21" width="7" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="12" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" style="12" customWidth="1"/>
-    <col min="26" max="27" width="8.85546875" style="12"/>
+    <col min="22" max="22" width="6.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" style="1" customWidth="1"/>
+    <col min="26" max="27" width="8.85546875" style="1"/>
+    <col min="28" max="28" width="8.28515625" customWidth="1"/>
+    <col min="29" max="29" width="7" customWidth="1"/>
+    <col min="30" max="30" width="6.85546875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5703125" style="1" customWidth="1"/>
+    <col min="34" max="35" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -689,1823 +690,2216 @@
       <c r="T1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="AB1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="13"/>
-      <c r="X2" s="11" t="s">
+      <c r="X2" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2009</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="3">
         <v>146</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5">
+        <v>203</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="15">
-        <v>203</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="H3" s="3">
         <v>258</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>25</v>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M3" s="3">
         <v>152</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="5">
+        <v>203</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="O3" s="15">
-        <v>203</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q3" s="3">
         <v>258</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="7" t="s">
-        <v>25</v>
+      <c r="R3" s="4"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="U3" s="3">
         <v>152</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="5">
+        <v>203</v>
+      </c>
+      <c r="X3" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="15">
-        <v>203</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="Y3">
         <v>258</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="5"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="3">
         <v>146</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5">
         <v>203</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="H4" s="3">
         <v>257</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>25</v>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M4" s="3">
         <v>152</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="15">
+      <c r="N4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="5">
         <v>203</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>26</v>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="Q4" s="3">
         <v>257</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="7" t="s">
-        <v>25</v>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="U4" s="3">
         <v>152</v>
       </c>
-      <c r="V4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="15">
+      <c r="V4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="5">
         <v>203</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>257</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2010</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>257</v>
-      </c>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="3">
         <v>147</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5">
+        <v>194</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="15">
-        <v>194</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H5" s="3">
         <v>255</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M5" s="3">
         <v>152</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="5">
+        <v>194</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="O5" s="15">
-        <v>194</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="Q5" s="3">
         <v>255</v>
       </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="7" t="s">
-        <v>25</v>
+      <c r="R5" s="4"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="U5" s="3">
         <v>152</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="5">
+        <v>194</v>
+      </c>
+      <c r="X5" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="15">
-        <v>194</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="Y5">
         <v>255</v>
       </c>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="5"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="3">
         <v>147</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5">
         <v>194</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H6" s="3">
         <v>256</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>25</v>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M6" s="3">
         <v>152</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="15">
+      <c r="N6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="5">
         <v>194</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
+      <c r="P6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Q6" s="3">
         <v>256</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="7" t="s">
-        <v>25</v>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="U6" s="3">
         <v>152</v>
       </c>
-      <c r="V6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="15">
+      <c r="V6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="5">
         <v>194</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="X6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6">
         <v>256</v>
       </c>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="5"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2011</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="3">
         <v>146</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5">
         <v>191</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="H7" s="3">
         <v>257</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="M7" s="3">
         <v>150</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="15">
+      <c r="N7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="5">
         <v>191</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>26</v>
+      <c r="P7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="Q7" s="3">
         <v>257</v>
       </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="7" t="s">
-        <v>32</v>
+      <c r="R7" s="4"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="U7" s="3">
         <v>150</v>
       </c>
-      <c r="V7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="W7" s="15">
+      <c r="V7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="5">
         <v>191</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="1">
+      <c r="X7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7">
         <v>257</v>
       </c>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="5"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="3">
         <v>146</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5">
         <v>191</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="H8" s="3">
         <v>257</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
-        <v>31</v>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="M8" s="3">
         <v>191</v>
       </c>
-      <c r="N8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="15">
+      <c r="N8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="5">
         <v>257</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="7" t="s">
-        <v>31</v>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="U8" s="3">
         <v>191</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="5">
+        <v>257</v>
+      </c>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="5"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="W8" s="15">
-        <v>257</v>
-      </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AC8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>146</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5">
+        <v>189</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="15">
-        <v>189</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="3">
         <v>239</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
-        <v>35</v>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="M9" s="3">
         <v>148</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="5">
+        <v>189</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="O9" s="15">
-        <v>189</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q9" s="3">
         <v>239</v>
       </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="7" t="s">
-        <v>35</v>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="U9" s="3">
         <v>148</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="5">
+        <v>189</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
-      <c r="W9" s="15">
-        <v>189</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y9" s="1">
+      <c r="Y9">
         <v>239</v>
       </c>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="5"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="3">
         <v>149</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5">
         <v>190</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H10" s="3">
         <v>239</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7" t="s">
-        <v>32</v>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="M10" s="3">
         <v>149</v>
       </c>
-      <c r="N10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="15">
+      <c r="N10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="5">
         <v>190</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>34</v>
+      <c r="P10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="Q10" s="3">
         <v>239</v>
       </c>
-      <c r="R10" s="14"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="7" t="s">
-        <v>32</v>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="U10" s="3">
         <v>149</v>
       </c>
-      <c r="V10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="15">
+      <c r="V10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="5">
         <v>190</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" s="1">
+      <c r="X10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10">
         <v>239</v>
       </c>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="5"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2013</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="3">
         <v>148</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5">
+        <v>189</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="15">
-        <v>189</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H11" s="3">
         <v>259</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="s">
-        <v>27</v>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="M11" s="3">
         <v>147</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="5">
+        <v>189</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="O11" s="15">
-        <v>189</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q11" s="3">
         <v>259</v>
       </c>
-      <c r="R11" s="14"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="7" t="s">
-        <v>27</v>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="U11" s="3">
         <v>147</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="5">
+        <v>189</v>
+      </c>
+      <c r="X11" t="s">
         <v>37</v>
       </c>
-      <c r="W11" s="15">
-        <v>189</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11" s="1">
+      <c r="Y11">
         <v>259</v>
       </c>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="5"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="3">
         <v>147</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5">
+        <v>189</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" s="15">
-        <v>189</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H12" s="3">
         <v>259</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
-        <v>36</v>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="M12" s="3">
         <v>148</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="5">
+        <v>189</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="O12" s="15">
-        <v>189</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q12" s="3">
         <v>259</v>
       </c>
-      <c r="R12" s="14"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="7" t="s">
-        <v>36</v>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U12" s="3">
         <v>148</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="V12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="5">
+        <v>189</v>
+      </c>
+      <c r="X12" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="15">
-        <v>189</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y12" s="1">
+      <c r="Y12">
         <v>259</v>
       </c>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="5"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2014</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="3">
         <v>147</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="5">
         <v>189</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>39</v>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H13" s="3">
         <v>251</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
-        <v>27</v>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="M13" s="3">
         <v>147</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="15">
+      <c r="N13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="5">
         <v>189</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>39</v>
+      <c r="P13" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="Q13" s="3">
         <v>251</v>
       </c>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="7" t="s">
-        <v>27</v>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="U13" s="3">
         <v>147</v>
       </c>
-      <c r="V13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="15">
+      <c r="V13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="5">
         <v>189</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y13" s="1">
+      <c r="X13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13">
         <v>251</v>
       </c>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="5"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>36</v>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="3">
         <v>148</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5">
         <v>189</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>39</v>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="3">
         <v>251</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7" t="s">
-        <v>36</v>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="M14" s="3">
         <v>148</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="15">
+      <c r="N14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="5">
         <v>189</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>39</v>
+      <c r="P14" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="Q14" s="3">
         <v>251</v>
       </c>
-      <c r="R14" s="14"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="7" t="s">
-        <v>36</v>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U14" s="3">
         <v>148</v>
       </c>
-      <c r="V14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="W14" s="15">
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="5">
         <v>189</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y14" s="1">
+      <c r="X14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14">
         <v>251</v>
       </c>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="5"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2015</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="3">
         <v>146</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="5">
         <v>202</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>41</v>
+      <c r="G16" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="H16" s="3">
         <v>273</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7" t="s">
-        <v>42</v>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="M16" s="3">
         <v>153</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="5">
+        <v>202</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="O16" s="15">
-        <v>202</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q16" s="3">
         <v>273</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="7" t="s">
-        <v>42</v>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="U16" s="3">
         <v>153</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="V16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" s="5">
+        <v>202</v>
+      </c>
+      <c r="X16" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="15">
-        <v>202</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16" s="1">
+      <c r="Y16">
         <v>273</v>
       </c>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AC16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="5"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2016</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>43</v>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="3">
         <v>143</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="5">
+        <v>194</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="15">
-        <v>194</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="3">
+        <v>243</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="22">
-        <v>143</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="J17" s="5">
         <v>278</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7" t="s">
-        <v>36</v>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="M17" s="3">
         <v>147</v>
       </c>
-      <c r="N17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="15">
+      <c r="N17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="5">
         <v>194</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>47</v>
+      <c r="P17" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="Q17" s="3">
         <v>247</v>
       </c>
-      <c r="R17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" s="15">
+      <c r="R17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="5">
         <v>278</v>
       </c>
-      <c r="T17" s="7" t="s">
-        <v>36</v>
+      <c r="T17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U17" s="3">
         <v>147</v>
       </c>
-      <c r="V17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="W17" s="15">
+      <c r="V17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" s="5">
         <v>194</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y17" s="1">
+      <c r="X17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17">
         <v>247</v>
       </c>
-      <c r="Z17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA17" s="13">
+      <c r="Z17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA17" s="1">
         <v>278</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="5"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>36</v>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="3">
         <v>148</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="15">
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5">
         <v>202</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>48</v>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H19" s="3">
         <v>237</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="5">
+        <v>282</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="J19" s="15">
-        <v>282</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M19" s="3">
         <v>156</v>
       </c>
-      <c r="N19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" s="16">
+      <c r="N19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="5">
         <v>202</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>237</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="6">
-        <v>237</v>
-      </c>
-      <c r="R19" s="14" t="s">
+      <c r="S19" s="5">
+        <v>282</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="S19" s="15">
-        <v>282</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="U19" s="3">
         <v>156</v>
       </c>
-      <c r="V19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="W19" s="15">
+      <c r="V19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="5">
         <v>202</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="X19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19">
+        <v>237</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y19" s="1">
-        <v>237</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA19" s="13">
+      <c r="AA19" s="1">
         <v>282</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="5"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>35</v>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="3">
         <v>149</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="5">
         <v>202</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>48</v>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H20" s="3">
         <v>237</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7" t="s">
-        <v>51</v>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="M20" s="3">
         <v>157</v>
       </c>
-      <c r="N20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" s="16">
+      <c r="N20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="5">
         <v>202</v>
       </c>
-      <c r="P20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="6">
+      <c r="P20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="3">
         <v>237</v>
       </c>
-      <c r="R20" s="14"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="7" t="s">
-        <v>51</v>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="U20" s="3">
         <v>157</v>
       </c>
-      <c r="V20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="W20" s="15">
+      <c r="V20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="5">
         <v>202</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y20" s="1">
+      <c r="X20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y20">
         <v>237</v>
       </c>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="5"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>52</v>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D21" s="3">
         <v>141</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5">
+        <v>198</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F21" s="15">
-        <v>198</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H21" s="3">
         <v>268</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7" t="s">
-        <v>55</v>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="M21" s="3">
         <v>151</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="5">
+        <v>198</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="O21" s="15">
-        <v>198</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q21" s="3">
         <v>268</v>
       </c>
-      <c r="R21" s="14"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="7" t="s">
-        <v>55</v>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="U21" s="3">
         <v>151</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="V21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W21" s="5">
+        <v>198</v>
+      </c>
+      <c r="X21" t="s">
         <v>53</v>
       </c>
-      <c r="W21" s="15">
-        <v>198</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y21" s="1">
+      <c r="Y21">
         <v>268</v>
       </c>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="5"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>52</v>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="3">
         <v>141</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="5">
+        <v>198</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F22" s="15">
-        <v>198</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H22" s="3">
         <v>268</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7" t="s">
-        <v>55</v>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="M22" s="3">
         <v>151</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="5">
+        <v>198</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="O22" s="15">
-        <v>198</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q22" s="3">
         <v>268</v>
       </c>
-      <c r="R22" s="14"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="7" t="s">
-        <v>55</v>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="U22" s="3">
         <v>151</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W22" s="5">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
         <v>53</v>
       </c>
-      <c r="W22" s="15">
-        <v>198</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y22" s="1">
+      <c r="Y22">
         <v>268</v>
       </c>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="5"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2019</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>32</v>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D23" s="3">
         <v>150</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="5">
         <v>199</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>34</v>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H23" s="3">
         <v>240</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="15">
+      <c r="I23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="5">
         <v>276</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7" t="s">
-        <v>32</v>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="M23" s="3">
         <v>150</v>
       </c>
-      <c r="N23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" s="15">
+      <c r="N23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="5">
         <v>199</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>34</v>
+      <c r="P23" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="Q23" s="3">
         <v>240</v>
       </c>
-      <c r="R23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="S23" s="15">
+      <c r="R23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" s="5">
         <v>276</v>
       </c>
-      <c r="T23" s="7" t="s">
-        <v>32</v>
+      <c r="T23" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="U23" s="3">
         <v>150</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W23" s="5">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23">
+        <v>240</v>
+      </c>
+      <c r="Z23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="15">
-        <v>199</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>240</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="1">
         <v>276</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="5"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>32</v>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="3">
         <v>150</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="15">
+      <c r="E24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="5">
         <v>199</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>34</v>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H24" s="3">
         <v>240</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="I24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="5">
         <v>276</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7" t="s">
-        <v>32</v>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="M24" s="3">
         <v>150</v>
       </c>
-      <c r="N24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" s="15">
+      <c r="N24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="5">
         <v>199</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
+      <c r="P24" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="Q24" s="3">
         <v>240</v>
       </c>
-      <c r="R24" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="S24" s="15">
+      <c r="R24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S24" s="5">
         <v>276</v>
       </c>
-      <c r="T24" s="7" t="s">
-        <v>32</v>
+      <c r="T24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="U24" s="3">
         <v>150</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="V24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" s="5">
+        <v>199</v>
+      </c>
+      <c r="X24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y24">
+        <v>240</v>
+      </c>
+      <c r="Z24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W24" s="15">
-        <v>199</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>240</v>
-      </c>
-      <c r="Z24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="1">
         <v>276</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="5"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2020</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3">
+        <v>156</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="6">
+      <c r="F25" s="1">
+        <v>194</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3">
+        <v>237</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="3">
         <v>156</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="N25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="1">
+        <v>194</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>237</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" s="3">
+        <v>156</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="W25" s="1">
+        <v>194</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25">
+        <v>237</v>
+      </c>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="10"/>
+      <c r="AF25" s="9"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>156</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F26" s="1">
         <v>194</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="3">
         <v>237</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="I26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1">
+        <v>279</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="3">
+        <v>156</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" s="1">
+        <v>194</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>237</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="3">
+        <v>156</v>
+      </c>
+      <c r="V26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="6">
-        <v>156</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" s="12">
+      <c r="W26" s="1">
         <v>194</v>
       </c>
-      <c r="P25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="6">
+      <c r="X26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y26">
         <v>237</v>
       </c>
-      <c r="T25" s="19">
-        <v>43986</v>
-      </c>
-      <c r="U25" s="6">
-        <v>156</v>
-      </c>
-      <c r="V25" s="18">
-        <v>44025</v>
-      </c>
-      <c r="W25" s="12">
-        <v>194</v>
-      </c>
-      <c r="X25" s="19">
-        <v>44068</v>
-      </c>
-      <c r="Y25" s="20">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="6">
-        <v>156</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="12">
-        <v>194</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="6">
-        <v>237</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="12">
-        <v>279</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M26" s="6">
-        <v>156</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="12">
-        <v>194</v>
-      </c>
-      <c r="P26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>237</v>
-      </c>
-      <c r="T26" s="19">
-        <v>43986</v>
-      </c>
-      <c r="U26" s="6">
-        <v>156</v>
-      </c>
-      <c r="V26" s="18">
-        <v>44025</v>
-      </c>
-      <c r="W26" s="12">
-        <v>194</v>
-      </c>
-      <c r="X26" s="19">
-        <v>44068</v>
-      </c>
-      <c r="Y26" s="20">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="10"/>
+      <c r="AF26" s="9"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2021</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="3">
+        <v>154</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1">
+        <v>196</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="3">
+        <v>266</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="3">
+        <v>154</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="1">
+        <v>196</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>266</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" s="3">
+        <v>154</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W27" s="1">
+        <v>196</v>
+      </c>
+      <c r="X27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y27">
+        <v>266</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC27">
+        <v>150</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>196</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG27">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3">
+        <v>154</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="1">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="3">
+        <v>259</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="3">
+        <v>155</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="1">
+        <v>196</v>
+      </c>
+      <c r="P28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>259</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28" s="3">
+        <v>155</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W28" s="1">
+        <v>196</v>
+      </c>
+      <c r="X28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y28">
+        <v>259</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28">
+        <v>150</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>196</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG28">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="11">
+        <v>154</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>148</v>
+      </c>
+      <c r="AD29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>196</v>
+      </c>
+      <c r="AF29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>259</v>
+      </c>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2022</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3">
+        <v>157</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="21">
+      <c r="F30" s="1">
+        <v>206</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="3">
+        <v>241</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="1">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="3">
         <v>157</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="N30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="1">
         <v>206</v>
       </c>
-      <c r="G29" t="s">
+      <c r="P30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>241</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="21">
+      <c r="S30" s="1">
+        <v>280</v>
+      </c>
+      <c r="T30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30" s="3">
+        <v>157</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="1">
+        <v>206</v>
+      </c>
+      <c r="X30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y30" s="3">
         <v>241</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="Z30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>280</v>
+      </c>
+      <c r="AB30" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="12">
+      <c r="AC30" s="3">
+        <v>157</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>206</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>241</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI30" s="1">
         <v>280</v>
       </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="21">
-        <v>157</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="12">
-        <v>206</v>
-      </c>
-      <c r="P29" t="s">
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3">
+        <v>156</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1">
+        <v>199</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="3">
+        <v>241</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="J31" s="1">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="3">
+        <v>156</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="1">
+        <v>199</v>
+      </c>
+      <c r="P31" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="3">
         <v>241</v>
       </c>
-      <c r="R29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S29" s="12">
+      <c r="R31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="1">
         <v>280</v>
       </c>
-      <c r="T29" t="s">
-        <v>20</v>
-      </c>
-      <c r="U29" s="21">
-        <v>157</v>
-      </c>
-      <c r="V29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W29" s="12">
-        <v>206</v>
-      </c>
-      <c r="X29" t="s">
+      <c r="T31" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="3">
+        <v>156</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W31" s="1">
+        <v>199</v>
+      </c>
+      <c r="X31" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>241</v>
+      </c>
+      <c r="Z31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="AA31" s="1">
+        <v>280</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>156</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>199</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG31" s="3">
         <v>241</v>
       </c>
-      <c r="Z29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA29" s="12">
+      <c r="AH31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI31" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2023</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T32" t="s">
+        <v>70</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="21">
-        <v>156</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="12">
-        <v>199</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="21">
-        <v>241</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="12">
-        <v>280</v>
-      </c>
-      <c r="L30" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" s="21">
-        <v>156</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="12">
-        <v>199</v>
-      </c>
-      <c r="P30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="21">
-        <v>241</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S30" s="12">
-        <v>280</v>
-      </c>
-      <c r="T30" t="s">
-        <v>16</v>
-      </c>
-      <c r="U30" s="21">
-        <v>156</v>
-      </c>
-      <c r="V30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="W30" s="12">
-        <v>199</v>
-      </c>
-      <c r="X30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y30" s="21">
-        <v>241</v>
-      </c>
-      <c r="Z30" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA30" s="12">
-        <v>280</v>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T33" t="s">
+        <v>70</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
